--- a/addr_lat_lgt.xlsx
+++ b/addr_lat_lgt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,15 +436,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>addr</t>
+          <t>Store_Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>lat</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>lgt</t>
         </is>
@@ -453,40 +458,4789 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>350 Ferst Dr NW, Atlanta, GA 30332</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>33.7742484</v>
+          <t>Abercorn</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>11152 Abercorn St, Savannah, GA 31419</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>-84.398842</v>
+        <v>31.9806088</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-81.1437232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>225 Peachtree Rd NE # B-40, Atlanta, GA 30303</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>33.7602157</v>
+          <t>Acworth</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3295 Cobb Pkwy NW, Acworth, GA 30101</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>-84.38708489999999</v>
+        <v>34.0342075</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-84.6787629</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Akers Mill Drive-Thru Only</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2975 Cobb Pkwy SE, Atlanta, GA 30339</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33.8807272</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-84.4609</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Albany</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2609 Dawson Rd, Albany, GA 31707</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31.6149805</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-84.21714679999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Albany State University</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>504 College Dr, Albany, GA 31705</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>31.5694324</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-84.14170829999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Alpharetta Commons</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4285 State Bridge Rd, Alpharetta, GA 30022</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>34.0571575</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-84.23292049999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Americus [GA]</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>736 E Forsyth St, Americus, GA 31709</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>32.0740826</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-84.2211921</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Arbor Place</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>6700 Douglas Blvd Ste 210, Douglasville, GA 30135</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>33.7277049</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-84.7457428</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AT&amp;T Center OCV</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>725 W Peachtree St NE, Atlanta, GA 30308</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>33.7739924</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-84.3866474</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Athens/Atlanta Highway</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3637 Atlanta Hwy, Athens, GA 30606</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>33.938384</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-83.45638660000002</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Augusta Exchange</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>202 Robert C Daniel Jr Pkwy, Augusta, GA 30909</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>33.4918953</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-82.0780999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Augusta Mall</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3450 Wrightsboro Rd, Augusta, GA 30909</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>33.4636223</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-82.0788051</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Austell Road</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3951 Austell Rd, Austell, GA 30106</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>33.857905</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-84.5998699</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Avalon</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2720 Old Milton Pkwy, Alpharetta, GA 30009</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>34.0692784</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-84.28097559999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Bainbridge</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1451 Tallahassee Hwy, Bainbridge, GA 39819</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>30.8847713</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-84.56498479999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Bankhead Hwy</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1156 Bankhead Hwy, Carrollton, GA 30116</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>33.5959486</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-85.0386151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Barnett Shoals</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1870 Barnett Shoals Rd, Athens, GA 30605</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>33.9245785</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-83.3399853</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Barrett Parkway</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>830 Ernest W Barrett Pkwy NW, Kennesaw, GA 30144</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>34.00706</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-84.5739286</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Bass Road</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1569 Bass Rd, Macon, GA 31210</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>32.9260433</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-83.735365</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Beechwood</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>196 Alps Rd, Athens, GA 30606</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>33.9449486</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-83.4094121</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Berry College</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2277 Martha Berry Hwy NW, Mount Berry, GA 30149</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>34.28942</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-85.19317049999999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Blairsville</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>152 Highway 515 E, Blairsville, GA 30512</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>34.8765435</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-83.9614514</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Bradley Park Drive</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1600 Bradley Park Dr, Columbus, GA 31904</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>32.5318413</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-84.96810959999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Braselton</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2600 Old Winder Hwy, Braselton, GA 30517</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>34.1195756</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-83.8263458</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Bremen</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>89 US Highway 27 Byp, Bremen, GA 30110</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>33.6879026</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-85.1502084</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Brookhaven</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>4046 Peachtree Rd NE, Brookhaven, GA 30319</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>33.8610547</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-84.3400518</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Brookstone</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1790 Mars Hill Rd NW, Acworth, GA 30101</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>33.9985763</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-84.704453</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Brunswick (GA)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>70 Golden Isles Plz, Brunswick, GA 31520</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>31.2115588</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-81.49076319999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Buford</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1615 Buford Hwy, Buford, GA 30518</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34.098467</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-84.01047389999999</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Byron [GA]</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>402 GA Highway 49 N, Byron, GA 31008</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>32.6626674</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-83.73900949999999</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Calhoun</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>495 Highway 53 E, Calhoun, GA 30701</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>34.4749453</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-84.92801</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Camp Creek Parkway</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>3410 Camp Creek Pkwy, Atlanta, GA 30344</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>33.656436</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-84.5016629</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Canton Marketplace</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2048 Cumming Hwy, Canton, GA 30115</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>34.2361792</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-84.4534882</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Carrollton</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1316 S Park St, Carrollton, GA 30117</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>33.554566</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-85.072209</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Cascade Road</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3725 Cascade Rd SW, Atlanta, GA 30331</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>33.7244757</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-84.51121169999999</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Cedartown [GA]</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1610 Rome Hwy, Cedartown, GA 30125</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>34.0477576</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-85.2353303</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chamblee Plaza</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>5450 Peachtree Industrial Blvd, Chamblee, GA 30341</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>33.9578746</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-84.2123801</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chastain Road In-Line DT</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>600 Chastain Rd NW Ste 100, Kennesaw, GA 30144</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>34.0369882</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-84.5696724</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chastain Square</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>4285 Roswell Rd NE, Atlanta, GA 30342</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>33.8718466</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-84.3805299</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Cherokee Place</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>115 Cherokee Pl, Cartersville, GA 30121</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>34.1712186</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-84.7863399</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Children's Hospital of Georgia</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1446 Harper St, Augusta, GA 30912</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>33.4711973</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-81.987893</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Clayton</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>151 Highway 441 N, Clayton, GA 30525</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>34.880374</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-83.3970794</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Cleveland (GA)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>25 W Underwood St, Cleveland, GA 30528</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>34.595049</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-83.7638097</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Cleveland Avenue</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1065 Cleveland Ave, East Point, GA 30344</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>33.6817951</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-84.4239609</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CNN Center</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1 Cnn Ctr NW Ste 224, Atlanta, GA 30303</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>33.758129</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-84.3943694</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>College Football Hall of Fame</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>256 Marietta St NW, Atlanta, GA 30313</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>33.7604153</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-84.39544979999999</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Colony Square</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1175 Peachtree St NE, Atlanta, GA 30361</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>33.7869752</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-84.38271829999999</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Columbus Park Crossing</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>5520 Whittlesey Blvd, Columbus, GA 31909</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>32.5452239</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-84.94508019999999</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Columbus State University</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>4225 University Ave, Columbus, GA 31907</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>32.5023087</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-84.9414487</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Commerce</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>30563 Highway 441 S, Commerce, GA 30529</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>34.2576527</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-83.46373170000001</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Conyers</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1536 Highway 138 SE, Conyers, GA 30013</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>33.6498024</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-84.00972639999999</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Cordele</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1711 E 16th Ave, Cordele, GA 31015</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>31.9609019</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-83.7544693</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Cornelia</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>330 Furniture Plaza Dr, Cornelia, GA 30531</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>34.5358727</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-83.53468149999999</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Covington (GA)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>4102 Highway 278 NW, Covington, GA 30014</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>33.6034699</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-83.8660201</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Covington Town Center</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>11500 Town Center Drive, Covington, GA 30014</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>33.620113</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-83.8403529</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Coweta Crossroads</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>5 Glenda Trce, Newnan, GA 30265</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>33.4091293</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-84.685892</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Cumberland Mall</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2860 Cumberland Mall SE Ste 1324, Atlanta, GA 30339</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>33.87976829999999</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-84.46785990000001</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Dacula</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>545 Dacula Rd, Dacula, GA 30019</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>34.0002637</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-83.9082099</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Dahlonega</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>488 Morrison Moore Pkwy E, Dahlonega, GA 30533</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>34.5343259</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-83.9757283</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Dallas (GA)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>300 Charlie Watts Dr, Dallas, GA 30157</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>33.90794959999999</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-84.8226571</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Dalton</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1429 W Walnut Ave, Dalton, GA 30720</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>34.7598377</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-84.99460929999999</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Dalton Mall</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>816 Walnut Square Blvd Ste 59, Dalton, GA 30721</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>34.758607</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-84.93352720000001</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Dawsonville</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>231 Power Center Dr, Dawsonville, GA 30534</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>34.3567254</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-84.04444610000002</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Delta Air Lines Headquarters</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1030 Delta Blvd, Atlanta, GA 30354</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>33.656213</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-84.42381949999999</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Doraville Plaza</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>5700 Buford Hwy Ne, Doraville, GA 30340</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>33.9076345</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-84.2691001</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Douglas [GA]</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1305 Peterson Ave S, Douglas, GA 31533</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>31.4909572</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-82.8514837</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Douglasville</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>3202 Highway 5, Douglasville, GA 30135</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>33.7173488</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-84.76417339999999</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Downtown Athens In-Line</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>101 College Ave, Athens, GA 30601</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>33.9579795</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-83.375638</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Downtown Decatur</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>105 E Trinity Pl, Decatur, GA 30030</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>33.7730408</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-84.29608949999999</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Dublin</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2002 Veterans Blvd, Dublin, GA 31021</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>32.5406478</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-82.94837029999999</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Dwarf House Chick-fil-A Classics Mt. Berry Square</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>726 Mount Berry Sq NE, Rome, GA 30165</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>34.2853865</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-85.18810909999999</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Dwarf House Shipping Container Drive-Thru</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>315 Riverside Pkwy NE, Rome, GA 30161</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>34.2624016</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-85.1706586</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Eagles Corner</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>333 Tormenta Way, Statesboro, GA 30458</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>32.410124</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-81.79080499999999</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Eagles Landing</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1275 Eagles Landing Pkwy, Stockbridge, GA 30281</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>33.5062747</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-84.22854009999999</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>East Lake</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2105 Roswell Rd, Marietta, GA 30062</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>33.9665793</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-84.4918909</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Eisenhower Parkway</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>5055 Brookhaven Rd, Macon, GA 31206</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>32.8111833</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-83.72142119999999</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Ellijay</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>475 Howard Simmons Rd, Ellijay, GA 30540</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>34.6584596</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-84.49275539999999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Epps Bridge</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1870 Epps Bridge Pkwy, Athens, GA 30606</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>33.9170969</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-83.4428769</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Fairburn</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>7810 Senoia Rd, Fairburn, GA 30213</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>33.5435184</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-84.5762541</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Fairburn Road Drive-Thru Only</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>5888 Fairburn Rd, Douglasville, GA 30134</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>33.75081790000001</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-84.7265974</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Fayetteville Dwarf House</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>221 Banks Sta, Fayetteville, GA 30214</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>33.467444</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-84.446589</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Fayetteville Towne Center</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>875 Glynn St S, Fayetteville, GA 30214</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>33.4298632</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-84.45870169999999</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Forest Park Dwarf House</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>4959 Jonesboro Rd, Forest Park, GA 30297</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>33.6190338</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-84.351778</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Forsyth [GA]</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>101 Industrial Park Dr, Forsyth, GA 31029</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>33.0269482</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-83.91425079999999</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Fort Oglethorpe</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1137 Battlefield Pkwy, Fort Oglethorpe, GA 30742</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>34.9531909</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-85.24514050000001</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Fort Valley State University</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1005 State University Dr, Fort Valley, GA 31030</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>32.541077</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-83.89598769999999</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Gainesville West</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>805 Dawsonville Hwy, Gainesville, GA 30501</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>34.2968468</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-83.8558336</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Georgia College and State University</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>231 W Hancock St, Milledgeville, GA 31061</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>33.0827363</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-83.23187229999999</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Georgia Gwinnett College</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1000 University Center Ln, Lawrenceville, GA 30043</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>33.9814112</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-84.0000397</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Georgia Southern University</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>8107 Russell Un, Statesboro, GA 30460</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>32.4259367</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-81.7828033</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Georgia Southern University - Armstrong Campus</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>11935 Abercorn St, Savannah, GA 31419</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>31.978225</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-81.16483199999999</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Georgia Southwestern State University</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>800 Gsw State University Dr, Americus, GA 31709</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>32.05501</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-84.21614049999999</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Georgia State University</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>66 Courtland Street, Atlanta, GA 30303</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>33.7592065</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-84.3840369</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Georgia State University - Petit Science Center</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>100 Piedmont Avenue SE, Atlanta, GA 30303</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>33.7510285</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-84.38558130000001</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Georgia Tech</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>350 Ferst Dr NW, Atlanta, GA 30332</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>33.7742484</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-84.398842</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Glenwood Place</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>401 Bill Kennedy Way SE, Atlanta, GA 30316</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>33.7423181</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-84.3584968</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Godley Station</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>205 Grand Central Boulevard, Pooler, GA 31322</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>32.131333</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-81.25762499999999</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Grady Memorial Hospital</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>80 Jesse Hill Jr Dr Se, Atlanta, GA 30303</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>33.7514934</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-84.3826634</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Griffin</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1000 W Taylor St, Griffin, GA 30223</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>33.2470719</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-84.2785214</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Grovetown</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>210 Meridian Dr, Grovetown, GA 30813</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>33.4786328</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-82.1984083</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Gulfstream Aerospace</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>500 Gulfstream Rd, Savannah, GA 31408</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>32.1391744</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-81.19728859999999</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Halcyon</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>6105 Ollie Walk, Alpharetta, GA 30005</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>34.0952227</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-84.21734029999999</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Hamilton Mill</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2635 Hamilton Mill Rd, Buford, GA 30519</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>34.0793743</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-83.917723</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Hartsfield-Jackson Atlanta Int'l Airport - Conc A</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>6000 N Terminal Pkwy, Atlanta, GA 30320</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>33.641392</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-84.44511799999999</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Hartsfield-Jackson Atlanta Int'l Airport - Conc C</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>7700 Spine Rd, Atlanta, GA 30320</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>33.64</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-84.44</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Hickory Flat</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>6114 Hickory Flat Hwy, Canton, GA 30115</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>34.1765998</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-84.42100049999999</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Hills and Dales</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2110 Vernon Street, Lagrange, GA 30240</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>33.03462750000001</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-85.0623713</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Hinesville</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>877 W Oglethorpe Hwy, Hinesville, GA 31313</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>31.82152689999999</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-81.6003522</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Hiram</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>5223 Jimmy Lee Smith Parkway, Hiram, GA 30141</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>33.8876781</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-84.7411929</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Howell Mill</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1942 Howell Mill Rd NW, Atlanta, GA 30318</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>33.8076775</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-84.413082</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Hwy 96 and Houston Lake</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>790 Highway 96, Bonaire, GA 31005</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>32.5539073</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-83.66058719999999</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Jefferson (GA)</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>156 Old Farm Road, Jefferson, GA 30549</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>34.123837</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-83.60428899999999</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Jesse Jewell Parkway</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1917 Jesse Jewell Pkwy NE, Gainesville, GA 30501</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>34.3136392</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-83.7962672</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Jett Ferry Road</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2480 Jett Ferry Rd, Dunwoody, GA 30338</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>33.9585312</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-84.3029171</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Jimmy Carter Blvd.</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>5455 Jimmy Carter Blvd, Norcross, GA 30093</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>33.9078235</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-84.2055754</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Jodeco Road</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2155 Jodeco Rd, McDonough, GA 30253</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>33.4807281</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-84.22310109999999</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Johns Creek</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>3643 Peachtree Pkwy, Suwanee, GA 30024</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>34.0707055</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-84.16637109999999</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Jonesboro Dwarf House</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>7348 Tara Blvd, Jonesboro, GA 30236</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>33.553919</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-84.36965409999999</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Kedron Village</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1100 N Peachtree Pkwy, Peachtree City, GA 30269</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>33.4405206</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-84.59080589999999</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Kennesaw State University</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>395 Cobb Ave NW, Kennesaw, GA 30144</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>34.0387489</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-84.5830539</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Kennesaw State University - Marietta</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1100 S Marietta Pkwy SE, Marietta, GA 30060</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>33.939042</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-84.51909649999999</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Kingsland</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>113 Lakes Blvd, Kingsland, GA 31548</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>30.7889277</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-81.65117579999999</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Kroger/W. Marietta Crossing</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1000 Whitlock Ave NW, c/o Kroger Store GA-455</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>33.9533355</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-84.58129409999999</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>LaFayette Parkway</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1574 Lafayette Pkwy, Lagrange, GA 30241</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>33.0415283</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-84.97454879999999</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Lake Dow</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>860 Highway 81 E, McDonough, GA 30252</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>33.4393004</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-84.122894</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Lake Oconee [GA]</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2521 Towne Center Pkwy, Greensboro, GA 30642</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>33.541714</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-83.20786</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Lake Park</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>1015 Lakes Blvd, Lake Park, GA 31636</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>30.6828121</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-83.2173825</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>LakePoint</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>94 Old Allatoona Rd SE, Cartersville, GA 30121</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>34.120328</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-84.74583389999999</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Larry Mulkey Memorial Rd</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>725 Atlanta Hwy, Cumming, GA 30040</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>34.1846087</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-84.14635799999999</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Lassiter</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>3046 Shallowford Rd, Marietta, GA 30062</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>34.0359969</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-84.4611086</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Lavonia [GA]</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>20 Owens Dr, Lavonia, GA 30553</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>34.4480859</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-83.12954669999999</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Lee Crossings</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>1202 US Highway 19 S, Leesburg, GA 31763</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>31.6562022</v>
+      </c>
+      <c r="D133" t="n">
+        <v>-84.1736197</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Lenox Square</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>3393 Peachtree Rd NE, Atlanta, GA 30326</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>33.8467259</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-84.36241989999999</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Lilburn</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>4801 Lawrenceville Hwy NW, Lilburn, GA 30047</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>33.8951128</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-84.1410089</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Line Creek</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2720 Highway 54, Peachtree City, GA 30269</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>33.3962202</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-84.60016019999999</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Locust Grove</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1005 Bandy Pkwy, Locust Grove, GA 30248</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>33.3516841</v>
+      </c>
+      <c r="D137" t="n">
+        <v>-84.12860309999999</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Loganville</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>4321 Atlanta Hwy, Loganville, GA 30052</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>33.839706</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-83.910068</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Lovejoy Station</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>11161 Tara Blvd, Hampton, GA 30228</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>33.4494088</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-84.32599359999999</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Lulah Hills</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>3795 N Druid Hills Rd, Decatur, GA 30033</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>33.8114063</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-84.2787525</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Macland Crossing</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2005 Macland Crossing Cir SW, Marietta, GA 30008</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>33.9046893</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-84.60348569999999</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Macon Road</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2421 Wynnton Rd, Columbus, GA 31906</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>32.4719888</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-84.95625269999999</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Madison (GA)</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>1781 Eatonton Rd, Madison, GA 30650</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>33.5637543</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-83.4790453</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Mall of Georgia</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>3333 Buford Dr Spc No1071, Buford, GA 30519</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>34.0662711</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-83.98427459999999</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Mall of Georgia on Buford Drive</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>3235 Buford Dr, Buford, GA 30519</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>34.0645016</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-83.9889993</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Manchester Expressway</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2730 Manchester Expy, Columbus, GA 31904</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>32.5060192</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-84.95222969999999</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>McDonough</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1321 Highway 20 W, McDonough, GA 30253</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>33.4242934</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-84.1834411</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Memorial Drive</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>5542 Memorial Dr, Stone Mountain, GA 30083</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>33.8012663</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-84.21178499999999</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Mercedes-Benz Stadium</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>441 Martin Luther King Jr Dr NW, Atlanta, GA 30313</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>33.7556317</v>
+      </c>
+      <c r="D149" t="n">
+        <v>-84.401696</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Mercer University</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>1400 Coleman Ave, Macon, GA 31207</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>32.8293681</v>
+      </c>
+      <c r="D150" t="n">
+        <v>-83.6515137</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Midland</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>6501 Kitten Lake Dr, Midland, GA 31820</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>32.5395648</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-84.8690634</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Midtown Savannah</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>7 E Derenne Ave, Savannah, GA 31405</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>32.0283957</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-81.11036199999999</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Milledgeville</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>1730 N Columbia St, Milledgeville, GA 31061</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>33.1006343</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-83.24818669999999</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Monroe (GA)</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>620 Highway 138, Monroe, GA 30655</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>33.7958305</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-83.7413</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Moore Road</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>1035 Peachtree Industrial Blvd, Suwanee, GA 30024</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>34.0520231</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-84.0901252</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Moultrie</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>502 Lane St, Moultrie, GA 31768</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>31.1733741</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-83.76246759999999</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Mullins Crossing</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>4201 Washington Rd, Evans, GA 30809</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>33.5253146</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-82.11951030000002</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>North Dalton</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>1275 N Glenwood Ave, Dalton, GA 30721</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>34.7957762</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-84.9627455</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>North Decatur</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>650 Decatur Village Way, Decatur, GA 30033</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>33.7956905</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-84.28593549999999</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>North Druid Hills</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2340 N Druid Hills Rd NE, Atlanta, GA 30329</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>33.8272513</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-84.32876</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>North Point Mall</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2180 N Point Cir, Alpharetta, GA 30022</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>34.0486398</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-84.29384900000001</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>North Point Parkway</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>6085 N Point Pkwy, Alpharetta, GA 30022</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>34.0485477</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-84.288524</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>North Valdosta</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>3147 Inner Perimeter Rd, Valdosta, GA 31602</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>30.8798963</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-83.29693979999999</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Northeast Georgia Medical Center</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>743 Spring St NE, Gainesville, GA 30501</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>34.3034084</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-83.8164795</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Northlake Festival</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>3967 Lavista Rd, Tucker, GA 30084</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>33.8459618</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-84.2525325</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Northridge Drive-Thru Only</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>8433 Roswell Rd, Atlanta, GA 30350</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>33.9843802</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-84.3499405</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Oakwood</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>3437 Winder Hwy, Flowery Branch, GA 30542</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>34.2185701</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-83.8607145</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Outlet Shoppes at Atlanta</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>951 Ridgewalk Pkwy, Woodstock, GA 30188</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>34.1229958</v>
+      </c>
+      <c r="D168" t="n">
+        <v>-84.52545549999999</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Peach Orchard Road</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>3130 Peach Orchard Rd, Augusta, GA 30906</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>33.41031359999999</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-82.0260933</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Peachtree at Collier</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>1901 Peachtree Rd NE, Atlanta, GA 30309</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>33.8070022</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-84.3935434</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Peachtree Center</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>225 Peachtree St NE # B-40, Atlanta, GA 30303</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>33.7602157</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-84.38708489999999</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Peachtree City Midtown</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>707 Highway 54, Peachtree City, GA 30269</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>33.4096653</v>
+      </c>
+      <c r="D172" t="n">
+        <v>-84.56736359999999</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Peachtree Corners</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>6105 Peachtree Pkwy, Norcross, GA 30092</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>33.9532887</v>
+      </c>
+      <c r="D173" t="n">
+        <v>-84.23468269999999</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Peachtree Ind. &amp; Pleasant Hill</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>3555 Peachtree Industrial Blvd, Duluth, GA 30096</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>34.0015621</v>
+      </c>
+      <c r="D174" t="n">
+        <v>-84.16973469999999</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Perimeter at Hammond Drive</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>4350 Ashford Dunwoody Rd NE, Atlanta, GA 30346</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>33.9209789</v>
+      </c>
+      <c r="D175" t="n">
+        <v>-84.34151059999999</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Perimeter Mall</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>4400 Ashford Dunwoody Rd Ne, Atlanta, GA 30346</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>33.9235924</v>
+      </c>
+      <c r="D176" t="n">
+        <v>-84.3407299</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Perimeter Pointe</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>1145 Mount Vernon Hwy, Dunwoody, GA 30338</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>33.9340607</v>
+      </c>
+      <c r="D177" t="n">
+        <v>-84.3500172</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Piedmont Augusta</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>1350 Walton Way, Augusta, GA 30901</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>33.4711803</v>
+      </c>
+      <c r="D178" t="n">
+        <v>-81.9830535</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Piedmont Road</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2580 Piedmont Rd NE, Atlanta, GA 30324</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>33.8253802</v>
+      </c>
+      <c r="D179" t="n">
+        <v>-84.3676143</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Pike Street</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>680 Duluth Hwy, Lawrenceville, GA 30046</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>33.965634</v>
+      </c>
+      <c r="D180" t="n">
+        <v>-84.0108554</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Pleasant Hill Dwarf House</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>1570 Pleasant Hill Rd, Duluth, GA 30096</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>33.9437208</v>
+      </c>
+      <c r="D181" t="n">
+        <v>-84.1232517</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Ponce &amp; Boulevard</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>689 Boulevard NE, Atlanta, GA 30308</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>33.7735229</v>
+      </c>
+      <c r="D182" t="n">
+        <v>-84.3704882</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Pooler</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>180 Pooler Pkwy, Pooler, GA 31322</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>32.1413925</v>
+      </c>
+      <c r="D183" t="n">
+        <v>-81.2457079</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Poplar Road</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2090 Newnan Crossing Blvd E, Newnan, GA 30265</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>33.3737599</v>
+      </c>
+      <c r="D184" t="n">
+        <v>-84.7539513</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>RELO Larry Mulkey Memorial Rd</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>725 Atlanta Hwy, Cumming, GA 30040</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>34.1846087</v>
+      </c>
+      <c r="D185" t="n">
+        <v>-84.14635799999999</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>RELO Wesley Chapel Road</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2452 Wesley Chapel Rd, Decatur, GA 30035</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>33.7158201</v>
+      </c>
+      <c r="D186" t="n">
+        <v>-84.21491109999999</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Rincon</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>5438 GA Highway 21 S, Rincon, GA 31326</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>32.27469</v>
+      </c>
+      <c r="D187" t="n">
+        <v>-81.22916119999999</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Riverdale Dwarf House</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>6549 Highway 85, Riverdale, GA 30274</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>33.5756325</v>
+      </c>
+      <c r="D188" t="n">
+        <v>-84.4129688</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Rivermont Station</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>8475 Holcomb Bridge Rd, Alpharetta, GA 30022</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>33.9866992</v>
+      </c>
+      <c r="D189" t="n">
+        <v>-84.27047089999999</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Riverstone Parkway</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>1459 Riverstone Pkwy, Canton, GA 30114</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>34.2523813</v>
+      </c>
+      <c r="D190" t="n">
+        <v>-84.47300489999999</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Rockmart</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>1500 Chattahoochee Dr, Rockmart, GA 30153</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>34.0087197</v>
+      </c>
+      <c r="D191" t="n">
+        <v>-85.0320792</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Roswell Corners</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>1185 Woodstock Rd, Roswell, GA 30075</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>34.0621543</v>
+      </c>
+      <c r="D192" t="n">
+        <v>-84.3994142</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Roswell Road at Cobb Parkway</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>1110 Roswell Rd, Marietta, GA 30062</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>33.9505432</v>
+      </c>
+      <c r="D193" t="n">
+        <v>-84.5190808</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Roswell Town Center</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>604 Holcomb Bridge Rd, Roswell, GA 30076</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>34.0370708</v>
+      </c>
+      <c r="D194" t="n">
+        <v>-84.3427064</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Russell Parkway</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>621 Russell Pkwy, Warner Robins, GA 31088</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>32.5934027</v>
+      </c>
+      <c r="D195" t="n">
+        <v>-83.63377969999999</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Saint Simons</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2205 Demere Rd, Saint Simons Island, GA 31522</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>31.1597168</v>
+      </c>
+      <c r="D196" t="n">
+        <v>-81.39015069999999</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Salem Bridge [GA]</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>12920 Brown Bridge Rd, Covington, GA 30016</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>33.57893749999999</v>
+      </c>
+      <c r="D197" t="n">
+        <v>-83.9620042</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Sam Nunn Blvd</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>1600 Sam Nunn Blvd, Perry, GA 31069</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>32.474614</v>
+      </c>
+      <c r="D198" t="n">
+        <v>-83.7463609</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Sandy Springs</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>5925 Roswell Rd Ste C, Atlanta, GA 30328</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>33.9177048</v>
+      </c>
+      <c r="D199" t="n">
+        <v>-84.3786616</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Sanford Stadium</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>280 E Campus Rd, Athens, GA 30602</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>33.9491241</v>
+      </c>
+      <c r="D200" t="n">
+        <v>-83.3722039</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Savannah Quarters</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2021 Pooler Pkwy, Pooler, GA 31322</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>32.080264</v>
+      </c>
+      <c r="D201" t="n">
+        <v>-81.28109529999999</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Savannah State University</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>3219 College St, Savannah, GA 31404</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>32.0226891</v>
+      </c>
+      <c r="D202" t="n">
+        <v>-81.05625689999999</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Scenic Highway</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1559 Scenic Hwy N, Snellville, GA 30078</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>33.8876953</v>
+      </c>
+      <c r="D203" t="n">
+        <v>-84.0100911</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Senoia</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>7996 Wells St, Senoia, GA 30276</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>33.2953795</v>
+      </c>
+      <c r="D204" t="n">
+        <v>-84.5469523</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Smyrna (GA)</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>5120 S Cobb Dr SE, Smyrna, GA 30080</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>33.8282334</v>
+      </c>
+      <c r="D205" t="n">
+        <v>-84.492564</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Snellville at Hwy 78</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>3090 Stone Mountain Hwy, Snellville, GA 30078</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>33.8522396</v>
+      </c>
+      <c r="D206" t="n">
+        <v>-84.0401766</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>South Cobb Drive</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>3100 S Cobb Dr SE, Smyrna, GA 30080</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>33.877978</v>
+      </c>
+      <c r="D207" t="n">
+        <v>-84.532876</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>South Dublin</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2242 US Highway 441 S, Dublin, GA 31021</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>32.4855234</v>
+      </c>
+      <c r="D208" t="n">
+        <v>-82.93539869999999</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>South Fulton Parkway at 92</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>5395 Thompson Road, South Fulton, GA 30213</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>33.6131526</v>
+      </c>
+      <c r="D209" t="n">
+        <v>-84.611463</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Sprayberry</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2530 Sandy Plains Rd, Marietta, GA 30066</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>34.01262639999999</v>
+      </c>
+      <c r="D210" t="n">
+        <v>-84.49535519999999</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>St. Augustine Road</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1100 N Saint Augustine Rd, Valdosta, GA 31601</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>30.8394628</v>
+      </c>
+      <c r="D211" t="n">
+        <v>-83.3203329</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Starr's Mill</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1222 Highway 74 S, Peachtree City, GA 30269</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>33.3426618</v>
+      </c>
+      <c r="D212" t="n">
+        <v>-84.53430089999999</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>State Farm Arena</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1 State Farm Drive, Atlanta, GA 30303</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>33.7574059</v>
+      </c>
+      <c r="D213" t="n">
+        <v>-84.3962337</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Statesboro</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>352 Northside Dr E, Statesboro, GA 30458</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>32.4379362</v>
+      </c>
+      <c r="D214" t="n">
+        <v>-81.7610773</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Stone Mountain</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>5075 Stone Mountain Hwy, Stone Mountain, GA 30087</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>33.82486859999999</v>
+      </c>
+      <c r="D215" t="n">
+        <v>-84.10579249999999</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Stonebridge Village</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>5905 Spout Springs Rd, Flowery Branch, GA 30542</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>34.1775873</v>
+      </c>
+      <c r="D216" t="n">
+        <v>-83.9108937</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Sugarloaf &amp; 316</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>4965 Sugarloaf Pkwy, Lawrenceville, GA 30044</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>33.9574192</v>
+      </c>
+      <c r="D217" t="n">
+        <v>-84.05769189999999</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Sugarloaf and Satellite</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2000 Satellite Blvd, Duluth, GA 30097</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>33.988337</v>
+      </c>
+      <c r="D218" t="n">
+        <v>-84.0878824</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Suwanee Road</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>3156 Lawrenceville Suwanee Rd, Suwanee, GA 30024</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>34.0334045</v>
+      </c>
+      <c r="D219" t="n">
+        <v>-84.0517404</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Terminus In-Line</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>3280 Peachtree Rd NE Ste 105, Atlanta, GA 30305</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>33.8444339</v>
+      </c>
+      <c r="D220" t="n">
+        <v>-84.3707775</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Terrell Mill</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1440 Terrell Mill Rd SE, Marietta, GA 30067</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>33.9173643</v>
+      </c>
+      <c r="D221" t="n">
+        <v>-84.4686658</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>The Collection Forsyth</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>430 Peachtree Pkwy, Cumming, GA 30041</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>34.1528564</v>
+      </c>
+      <c r="D222" t="n">
+        <v>-84.1748475</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>The Dwarf House</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>461 N Central Ave, Hapeville, GA 30354</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>33.6563813</v>
+      </c>
+      <c r="D223" t="n">
+        <v>-84.4040004</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>The Mall at Stonecrest</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2929 Turner Hill Rd Ste 2550, Lithonia, GA 30038</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>33.7033886</v>
+      </c>
+      <c r="D224" t="n">
+        <v>-84.08875309999999</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Thomaston [GA]</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1054 Highway 19 N, Thomaston, GA 30286</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>32.9221459</v>
+      </c>
+      <c r="D225" t="n">
+        <v>-84.3332262</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Thomasville</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>15062 US Highway 19 S, Thomasville, GA 31757</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>30.8543477</v>
+      </c>
+      <c r="D226" t="n">
+        <v>-83.9450736</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Thomson</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1806 Washington Rd, Thomson, GA 30824</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>33.5056781</v>
+      </c>
+      <c r="D227" t="n">
+        <v>-82.50224679999999</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Thornton Road</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>835 Thornton Rd, Lithia Springs, GA 30122</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>33.7821017</v>
+      </c>
+      <c r="D228" t="n">
+        <v>-84.6097207</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Tifton</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1197 US Highway 82 W, Tifton, GA 31793</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>31.4505872</v>
+      </c>
+      <c r="D229" t="n">
+        <v>-83.5315916</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Toccoa [GA]</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>605 Big A Rd, Toccoa, GA 30577</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>34.5746448</v>
+      </c>
+      <c r="D230" t="n">
+        <v>-83.31218109999999</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Tom Hill Sr Blvd</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>140 Tom Hill Sr Blvd, Macon, GA 31210</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>32.9002989</v>
+      </c>
+      <c r="D231" t="n">
+        <v>-83.6886147</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Town Center At Cobb</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>400 Ernest W Barrett Pkwy NW, Kennesaw, GA 30144</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>34.0177099</v>
+      </c>
+      <c r="D232" t="n">
+        <v>-84.5644745</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Towne Lake</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>3070 Eagle Dr, Woodstock, GA 30189</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>34.1111007</v>
+      </c>
+      <c r="D233" t="n">
+        <v>-84.5555808</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Truett's Chick-fil-A - Newnan</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>505 Highway 34 E, Newnan, GA 30265</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>33.3913829</v>
+      </c>
+      <c r="D234" t="n">
+        <v>-84.76293679999999</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Truett's Chick-fil-A - Rome</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>264 Shorter Ave NW, Rome, GA 30165</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>34.2635019</v>
+      </c>
+      <c r="D235" t="n">
+        <v>-85.18834769999999</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Truett's Chick-fil-A - Stockbridge</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>3649 Highway 138 SE, Stockbridge, GA 30281</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>33.5530361</v>
+      </c>
+      <c r="D236" t="n">
+        <v>-84.27185449999999</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Truett's Chick-fil-A - Woodstock</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>9728 Highway 92, Woodstock, GA 30188</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>34.0857069</v>
+      </c>
+      <c r="D237" t="n">
+        <v>-84.52688599999999</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Truett's Chick-fil-A Catering &amp; Delivery - VA Ave</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>801 Virginia Ave, Hapeville, GA 30354</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>33.6599878</v>
+      </c>
+      <c r="D238" t="n">
+        <v>-84.4157379</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Truett's Grill - Griffin</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1455 N Expressway, Griffin, GA 30223</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>33.2730184</v>
+      </c>
+      <c r="D239" t="n">
+        <v>-84.2928996</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Truett's Grill - McDonough</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1785 Jonesboro Rd, McDonough, GA 30253</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>33.4630963</v>
+      </c>
+      <c r="D240" t="n">
+        <v>-84.21463779999999</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Truett's Grill - Morrow</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2042 Mount Zion Rd, Morrow, GA 30260</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>33.5625407</v>
+      </c>
+      <c r="D241" t="n">
+        <v>-84.3232185</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Truett's Luau</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>600 Lanier Ave W Ste 103, Fayetteville, GA 30214</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>33.4465449</v>
+      </c>
+      <c r="D242" t="n">
+        <v>-84.4677301</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Truist Park</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>755 Battery Ave SE, Atlanta, GA 30339</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>33.889928</v>
+      </c>
+      <c r="D243" t="n">
+        <v>-84.46863879999999</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Tucker Hugh Howell Road</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>4435 Hugh Howell Rd, Tucker, GA 30084</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>33.8498985</v>
+      </c>
+      <c r="D244" t="n">
+        <v>-84.2072209</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Turner Hill Road</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2985 Turner Hill Rd, Lithonia, GA 30038</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>33.7033774</v>
+      </c>
+      <c r="D245" t="n">
+        <v>-84.0887539</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Union Grove Crossroads</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1940 Highway 155 N, McDonough, GA 30252</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>33.5053416</v>
+      </c>
+      <c r="D246" t="n">
+        <v>-84.14157609999999</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>University of Georgia</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>45 Baxter St, Athens, GA 30602</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>33.9504571</v>
+      </c>
+      <c r="D247" t="n">
+        <v>-83.37501349999999</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>University of West Georgia</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Campus Dining, Carrollton, GA 30118</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>33.5718188</v>
+      </c>
+      <c r="D248" t="n">
+        <v>-85.098004</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Valdosta State University - Student Union</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1500 N Patterson St, Valdosta, GA 31698</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>30.8471668</v>
+      </c>
+      <c r="D249" t="n">
+        <v>-83.2891918</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Victory at Skidaway</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>2111 E Victory Dr, Savannah, GA 31404</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>32.0403145</v>
+      </c>
+      <c r="D250" t="n">
+        <v>-81.0634522</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Vidalia</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2349 E 1st St, Vidalia, GA 30474</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>32.2074694</v>
+      </c>
+      <c r="D251" t="n">
+        <v>-82.3816425</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Villa Rica</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>85 Commerce Dr, Villa Rica, GA 30180</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>33.7289919</v>
+      </c>
+      <c r="D252" t="n">
+        <v>-84.9407013</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Vine City</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>875 Martin Luther King Jr Dr NW, Atlanta, GA 30314</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>33.7550103</v>
+      </c>
+      <c r="D253" t="n">
+        <v>-84.41578799999999</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Vinings</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>2485 Cumberland Pkwy SE, Atlanta, GA 30339</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>33.864036</v>
+      </c>
+      <c r="D254" t="n">
+        <v>-84.4775757</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Washington Road</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>3066 Washington Rd, Augusta, GA 30907</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>33.5129373</v>
+      </c>
+      <c r="D255" t="n">
+        <v>-82.0518513</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Watson Blvd</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>3000 Watson Blvd, Warner Robins, GA 31093</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>32.6180029</v>
+      </c>
+      <c r="D256" t="n">
+        <v>-83.6914223</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Waycross</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>2256 Memorial Dr, Waycross, GA 31501</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>31.1985349</v>
+      </c>
+      <c r="D257" t="n">
+        <v>-82.3257837</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Wesley Chapel Road</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>2452 Wesley Chapel Rd, Decatur, GA 30035</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>33.7158201</v>
+      </c>
+      <c r="D258" t="n">
+        <v>-84.21491109999999</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>West Cobb</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2555 Dallas Hwy SW, Marietta, GA 30064</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>33.9458146</v>
+      </c>
+      <c r="D259" t="n">
+        <v>-84.6263707</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>West Midtown</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
           <t>1100 Northside Dr NW, Atlanta, GA 30318</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C260" t="n">
         <v>33.7848124</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D260" t="n">
         <v>-84.40799919999999</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>West Paces Ferry</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>3419 Northside Pkwy NW, Atlanta, GA 30327</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>33.8474365</v>
+      </c>
+      <c r="D261" t="n">
+        <v>-84.4288306</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Winder</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>97 Shephard Lane, Bethlehem, GA 30620</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>33.9473928</v>
+      </c>
+      <c r="D262" t="n">
+        <v>-83.75448659999999</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Windward Parkway</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>5180 Windward Pkwy, Alpharetta, GA 30004</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>34.09262289999999</v>
+      </c>
+      <c r="D263" t="n">
+        <v>-84.2765404</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Windy Hill Road</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>2661 Windy Hill Rd SE, Marietta, GA 30067</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>33.9016453</v>
+      </c>
+      <c r="D264" t="n">
+        <v>-84.47812279999999</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Woodlawn Square</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1201 Johnson Ferry Rd, Marietta, GA 30068</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>33.9778687</v>
+      </c>
+      <c r="D265" t="n">
+        <v>-84.41824249999999</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Young Harris College</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>228 Maple Street, Young Harris, GA 30582</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>34.9334709</v>
+      </c>
+      <c r="D266" t="n">
+        <v>-83.84591549999999</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Zebulon Road</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>5920 Zebulon Rd, Macon, GA 31210</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>32.8794141</v>
+      </c>
+      <c r="D267" t="n">
+        <v>-83.75831640000001</v>
       </c>
     </row>
   </sheetData>
